--- a/data/out/people.xlsx
+++ b/data/out/people.xlsx
@@ -420,6 +420,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
